--- a/Conception d'un système d'Aide à la décision Fonctionnelle en Cybersécurité.xlsx
+++ b/Conception d'un système d'Aide à la décision Fonctionnelle en Cybersécurité.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitaminez\Dropbox\EST Etudes\EST\Licence pro SIBD\S5\6- Méthodes AGILES\Projet SAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitaminez\Dropbox\EST Etudes\EST\Licence pro SIBD\S5\6- Méthodes AGILES\Projet SAFE\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBE7441-0DB3-4F4F-A1A1-5B35D98EA636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EEC02B-753F-439B-9CAD-13AF9830D56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="11892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="11892" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="burndown chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -39,9 +40,6 @@
   </si>
   <si>
     <t>Importance (1-10)</t>
-  </si>
-  <si>
-    <t>Estimation (jours/hommes)</t>
   </si>
   <si>
     <t>Status</t>
@@ -100,13 +98,49 @@
   </si>
   <si>
     <t>En tant qu'utilisateur, nous souhaitons avoir une interface à travers laquelle nous pouvons importer des données quel que soit le format.</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Lundi</t>
+  </si>
+  <si>
+    <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Mardi</t>
+  </si>
+  <si>
+    <t>Mercredi</t>
+  </si>
+  <si>
+    <t>Jeudi</t>
+  </si>
+  <si>
+    <t>Planned (h)</t>
+  </si>
+  <si>
+    <t>Estimation (heures/hommes)</t>
+  </si>
+  <si>
+    <t>Actual (h)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +193,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open "/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +262,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -276,11 +329,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,6 +537,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -358,12 +552,25 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,6 +725,1273 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burndown chart'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned (h)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'burndown chart'!$B$3:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44917</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44922</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44929</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44930</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44932</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44936</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'burndown chart'!$C$3:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5291-41B0-B6F1-0B2FBF79BA79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burndown chart'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual (h)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'burndown chart'!$B$3:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44917</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44922</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44929</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44930</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44932</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44936</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44938</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'burndown chart'!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5291-41B0-B6F1-0B2FBF79BA79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1974025936"/>
+        <c:axId val="1974005968"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1974025936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974005968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1974005968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974025936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABEFD98-14D8-8F94-BA92-9354E3F45524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{191D3633-E39A-4A77-9E5C-F21C0D608A5B}" name="Table1" displayName="Table1" ref="D3:H12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="D3:H12" xr:uid="{191D3633-E39A-4A77-9E5C-F21C0D608A5B}"/>
@@ -525,7 +1999,7 @@
     <tableColumn id="1" xr3:uid="{CB5FEC83-C67C-4BD5-B75F-5C469AEB446A}" name="ID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{20130246-8512-48C4-9BC2-5C39A0098FF2}" name="Title" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{646970F2-5C9C-4E88-BA22-69FB56F42649}" name="Importance (1-10)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{370E8EC6-7325-47AB-A602-4299A7B4B906}" name="Estimation (jours/hommes)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{370E8EC6-7325-47AB-A602-4299A7B4B906}" name="Estimation (heures/hommes)" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{26BDDF91-6B16-4DF3-96FF-32041364F373}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -831,11 +2305,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -846,14 +2320,14 @@
     <col min="9" max="9" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E1" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="15.6">
+      <c r="E1" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -865,21 +2339,21 @@
         <v>2</v>
       </c>
       <c r="G3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="22" t="s">
+    </row>
+    <row r="4" spans="3:8" ht="21.75" customHeight="1">
+      <c r="C4" s="26" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="24" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="13">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
@@ -888,16 +2362,16 @@
         <v>5</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="24"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="37.5" customHeight="1">
+      <c r="C5" s="26"/>
       <c r="D5" s="13">
         <v>2</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
@@ -906,16 +2380,16 @@
         <v>2</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="24"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="50.4" customHeight="1">
+      <c r="C6" s="26"/>
       <c r="D6" s="13">
         <v>3</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3">
         <v>9</v>
@@ -924,16 +2398,16 @@
         <v>3</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="24"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="35.25" customHeight="1">
+      <c r="C7" s="26"/>
       <c r="D7" s="13">
         <v>4</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <v>8</v>
@@ -942,18 +2416,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="52.2" customHeight="1">
+      <c r="C8" s="27" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="25" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="14">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5">
         <v>7</v>
@@ -962,16 +2436,16 @@
         <v>3</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="25"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="37.5" customHeight="1">
+      <c r="C9" s="27"/>
       <c r="D9" s="14">
         <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="5">
         <v>6</v>
@@ -980,18 +2454,18 @@
         <v>3</v>
       </c>
       <c r="H9" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="36.75" customHeight="1">
+      <c r="C10" s="24" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="27" t="s">
-        <v>11</v>
       </c>
       <c r="D10" s="15">
         <v>7</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7">
         <v>5</v>
@@ -1000,18 +2474,18 @@
         <v>5</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="26" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="40.5" customHeight="1">
+      <c r="C11" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="16">
         <v>8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11">
         <v>2</v>
@@ -1020,16 +2494,16 @@
         <v>2</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="26"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="39.75" customHeight="1">
+      <c r="C12" s="28"/>
       <c r="D12" s="17">
         <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
@@ -1038,15 +2512,15 @@
         <v>5</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="35.25" customHeight="1"/>
+    <row r="14" spans="3:8" ht="33" customHeight="1"/>
+    <row r="15" spans="3:8" ht="33" customHeight="1"/>
+    <row r="16" spans="3:8" ht="33.75" customHeight="1"/>
+    <row r="17" ht="33.75" customHeight="1"/>
+    <row r="18" ht="33.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C4:C7"/>
@@ -1059,4 +2533,378 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689A91C-E2C6-4B1B-86E1-219FC33E0B6F}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="30">
+        <v>44907</v>
+      </c>
+      <c r="C3" s="29">
+        <v>24</v>
+      </c>
+      <c r="D3" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="30">
+        <v>44908</v>
+      </c>
+      <c r="C4" s="29">
+        <v>23</v>
+      </c>
+      <c r="D4" s="31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="30">
+        <v>44909</v>
+      </c>
+      <c r="C5" s="29">
+        <v>22</v>
+      </c>
+      <c r="D5" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="30">
+        <v>44910</v>
+      </c>
+      <c r="C6" s="29">
+        <v>21</v>
+      </c>
+      <c r="D6" s="31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="30">
+        <v>44911</v>
+      </c>
+      <c r="C7" s="29">
+        <v>20</v>
+      </c>
+      <c r="D7" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="30">
+        <v>44914</v>
+      </c>
+      <c r="C8" s="29">
+        <v>19</v>
+      </c>
+      <c r="D8" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="30">
+        <v>44915</v>
+      </c>
+      <c r="C9" s="29">
+        <v>18</v>
+      </c>
+      <c r="D9" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="30">
+        <v>44916</v>
+      </c>
+      <c r="C10" s="29">
+        <v>17</v>
+      </c>
+      <c r="D10" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="30">
+        <v>44917</v>
+      </c>
+      <c r="C11" s="29">
+        <v>16</v>
+      </c>
+      <c r="D11" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="30">
+        <v>44918</v>
+      </c>
+      <c r="C12" s="29">
+        <v>15</v>
+      </c>
+      <c r="D12" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="30">
+        <v>44921</v>
+      </c>
+      <c r="C13" s="29">
+        <v>14</v>
+      </c>
+      <c r="D13" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="30">
+        <v>44922</v>
+      </c>
+      <c r="C14" s="29">
+        <v>13</v>
+      </c>
+      <c r="D14" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="30">
+        <v>44923</v>
+      </c>
+      <c r="C15" s="29">
+        <v>12</v>
+      </c>
+      <c r="D15" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="30">
+        <v>44924</v>
+      </c>
+      <c r="C16" s="29">
+        <v>11</v>
+      </c>
+      <c r="D16" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="30">
+        <v>44925</v>
+      </c>
+      <c r="C17" s="29">
+        <v>10</v>
+      </c>
+      <c r="D17" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="30">
+        <v>44928</v>
+      </c>
+      <c r="C18" s="29">
+        <v>9</v>
+      </c>
+      <c r="D18" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="30">
+        <v>44929</v>
+      </c>
+      <c r="C19" s="29">
+        <v>8</v>
+      </c>
+      <c r="D19" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="30">
+        <v>44930</v>
+      </c>
+      <c r="C20" s="29">
+        <v>7</v>
+      </c>
+      <c r="D20" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="30">
+        <v>44931</v>
+      </c>
+      <c r="C21" s="29">
+        <v>6</v>
+      </c>
+      <c r="D21" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="30">
+        <v>44932</v>
+      </c>
+      <c r="C22" s="29">
+        <v>5</v>
+      </c>
+      <c r="D22" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="30">
+        <v>44935</v>
+      </c>
+      <c r="C23" s="29">
+        <v>4</v>
+      </c>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="30">
+        <v>44936</v>
+      </c>
+      <c r="C24" s="29">
+        <v>3</v>
+      </c>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="30">
+        <v>44938</v>
+      </c>
+      <c r="C25" s="29">
+        <v>2</v>
+      </c>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1">
+      <c r="A26" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="34">
+        <v>44939</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1</v>
+      </c>
+      <c r="D26" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>